--- a/src/VisualAcademy/VisualAcademy/wwwroot/templates/ApplicantsTransfers/ApplicantsTransfers.xlsx
+++ b/src/VisualAcademy/VisualAcademy/wwwroot/templates/ApplicantsTransfers/ApplicantsTransfers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kodee\_Zero\KodeeOneAzureGov\Portals\Portals\wwwroot\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RedPlus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE968BA-752A-40E0-B0D6-AD4CFF724D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB90623-540A-4F57-AE8A-2882ADBD83DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="16080" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="165" yWindow="16080" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t xml:space="preserve">Report:  </t>
   </si>
@@ -139,9 +139,6 @@
     <t>Non-Tribal</t>
   </si>
   <si>
-    <t>Class II Gaming License</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
   </si>
   <si>
     <t>Security Officer</t>
-  </si>
-  <si>
-    <t>Class III Gaming License</t>
   </si>
   <si>
     <t>L</t>
@@ -609,7 +603,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -880,22 +874,22 @@
         <v>1234</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F9" s="3">
         <v>30597</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>30</v>
@@ -916,7 +910,7 @@
         <v>8001234567</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>35</v>
@@ -933,9 +927,7 @@
       <c r="T9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="U9" s="2"/>
       <c r="V9" s="3">
         <v>45258</v>
       </c>
@@ -945,47 +937,47 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2">
         <v>1235</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="3">
         <v>30233</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N10" s="2">
         <v>3601235678</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>35</v>
@@ -994,7 +986,7 @@
         <v>45274</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>37</v>
@@ -1002,9 +994,7 @@
       <c r="T10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U10" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="U10" s="2"/>
       <c r="V10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1014,18 +1004,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:W4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:W5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:W6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:W1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:W2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:W3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:W4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:W5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:W6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
